--- a/Bot_lazada/Data_lazada/data_11_124_31.xlsx
+++ b/Bot_lazada/Data_lazada/data_11_124_31.xlsx
@@ -372,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:J41"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -382,1800 +382,1308 @@
         <v>picture-wrapper src</v>
       </c>
       <c r="C1" t="str">
-        <v>uEds4 href</v>
+        <v>RfADt</v>
       </c>
       <c r="D1" t="str">
-        <v>picture-wrapper src 2</v>
+        <v>RfADt href</v>
       </c>
       <c r="E1" t="str">
-        <v>RfADt</v>
+        <v>ooOxS</v>
       </c>
       <c r="F1" t="str">
-        <v>RfADt href</v>
+        <v>IcOsH</v>
       </c>
       <c r="G1" t="str">
-        <v>ooOxS</v>
+        <v>_1cEkb</v>
       </c>
       <c r="H1" t="str">
+        <v>qzqFw</v>
+      </c>
+      <c r="I1" t="str">
+        <v>oa6ri</v>
+      </c>
+      <c r="J1" t="str">
         <v>ic-dynamic-badge</v>
-      </c>
-      <c r="I1" t="str">
-        <v>_1cEkb</v>
-      </c>
-      <c r="J1" t="str">
-        <v>qzqFw</v>
-      </c>
-      <c r="K1" t="str">
-        <v>oa6ri</v>
-      </c>
-      <c r="L1" t="str">
-        <v>IcOsH</v>
-      </c>
-      <c r="M1" t="str">
-        <v>uEds4 href 2</v>
-      </c>
-      <c r="N1" t="str">
-        <v>picture-wrapper src 3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://www.lazada.co.th/products/4-2-riding-tribe-i2391867855.html?spm=a2o4m.searchlistcategory.list.1.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/2-2-14-i1605528714.html?spm=a2o4m.searchlistcategory.list.1.310851eenPmRTw</v>
       </c>
       <c r="B2" t="str">
-        <v>https://img.lazcdn.com/g/p/eea12eec947cc58bf8ea015d8694e8d0.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/5356888aee8e842fe4acd51c902cc85b.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C2" t="str">
-        <v>https://www.lazada.co.th/products/4-2-riding-tribe-i2391867855.html?spm=a2o4m.searchlistcategory.list.2.310851eenO3SfV</v>
+        <v>การ์ดเข่า +การ์ดศอก สนับเข่า มอเตอร์ไซค์ สแตนเลส เข่า 2ชิ้น+ ศอก 2ชิ้น /14</v>
       </c>
       <c r="D2" t="str">
-        <v>https://img.lazcdn.com/g/p/31afd8d28e481764d785d9b71dc75975.jpg_80x80q80.jpg_.webp</v>
+        <v>https://www.lazada.co.th/products/2-2-14-i1605528714.html?spm=a2o4m.searchlistcategory.list.2.310851eenPmRTw</v>
       </c>
       <c r="E2" t="str">
-        <v>สนับเข่าศอก ชุด 4 ชิ้น และชุด 2 ชิ้น (มีตัวเลือก ) Riding Tribe มิเนียม  ป้องกันอุบัติเหตุที่เกิดจากการขับขี่มอเตอร์ไซค์</v>
+        <v>฿199.00</v>
       </c>
       <c r="F2" t="str">
-        <v>https://www.lazada.co.th/products/4-2-riding-tribe-i2391867855.html?spm=a2o4m.searchlistcategory.list.3.310851eenO3SfV</v>
+        <v>72% Off</v>
       </c>
       <c r="G2" t="str">
-        <v>฿690.00</v>
+        <v>106 sold</v>
       </c>
       <c r="H2" t="str">
-        <v>Coins discount ฿6.90</v>
+        <v>(23)</v>
       </c>
       <c r="I2" t="str">
-        <v>14 sold</v>
+        <v>Chiang Rai</v>
       </c>
       <c r="J2" t="str">
-        <v>(2)</v>
-      </c>
-      <c r="K2" t="str">
-        <v>Nonthaburi</v>
-      </c>
-      <c r="L2" t="str">
-        <v/>
-      </c>
-      <c r="M2" t="str">
-        <v/>
-      </c>
-      <c r="N2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://www.lazada.co.th/products/1-mtb-i769000623.html?spm=a2o4m.searchlistcategory.list.4.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/ready-stock4-4-pcs-set-motorcycle-protector-knee-pads-elbow-protector-stainless-steel-cross-country-i2763969383.html?spm=a2o4m.searchlistcategory.list.3.310851eenPmRTw</v>
       </c>
       <c r="B3" t="str">
-        <v>https://img.lazcdn.com/g/p/b30386c687834e3cd05e48570073586c.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/318974ab14e9abd5a6ad54522efc04e1.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>【Ready Stock】4 ชิ้นรถจักรยานยนต์มอเตอร์ครอสขี่จักรยานข้อศอกเข่า 4 pcs/ set Motorcycle Protector Knee Pads Elbow Protector Stainless Steel Cross-country</v>
       </c>
       <c r="D3" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/ready-stock4-4-pcs-set-motorcycle-protector-knee-pads-elbow-protector-stainless-steel-cross-country-i2763969383.html?spm=a2o4m.searchlistcategory.list.4.310851eenPmRTw</v>
       </c>
       <c r="E3" t="str">
-        <v>1 Pair Cycling Knee Brace and Elbow Guards Bicycle MTB Bike Motorcycle Riding Knee Support Protective Pads Guards Outdoor Sports Cycling Knee Protector Gear</v>
+        <v>฿395.00</v>
       </c>
       <c r="F3" t="str">
-        <v>https://www.lazada.co.th/products/1-mtb-i769000623.html?spm=a2o4m.searchlistcategory.list.5.310851eenO3SfV</v>
+        <v>67% Off</v>
       </c>
       <c r="G3" t="str">
-        <v>฿227.00</v>
+        <v/>
       </c>
       <c r="H3" t="str">
         <v/>
       </c>
       <c r="I3" t="str">
-        <v>62 sold</v>
+        <v>Bangkok</v>
       </c>
       <c r="J3" t="str">
-        <v>(6)</v>
-      </c>
-      <c r="K3" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L3" t="str">
-        <v>39% Off</v>
-      </c>
-      <c r="M3" t="str">
-        <v/>
-      </c>
-      <c r="N3" t="str">
         <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://www.lazada.co.th/products/motowolf-mdl10101034-i2961472198.html?spm=a2o4m.searchlistcategory.list.6.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/24-safety-skateboard-surf-skate-roller-protector-4pcs-pads-elbow-pads-anti-fall-pe-elbow-guards-light-pads-i4005669842.html?spm=a2o4m.searchlistcategory.list.5.310851eenPmRTw</v>
       </c>
       <c r="B4" t="str">
-        <v>https://img.lazcdn.com/g/ff/kf/S99e3171718674ff387c241028d7b5ae5m.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/d29d189aea5a5a7acb54faf5abad0032.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C4" t="str">
-        <v>https://www.lazada.co.th/products/motowolf-mdl10101034-i2961472198.html?spm=a2o4m.searchlistcategory.list.7.310851eenO3SfV</v>
+        <v>จัดส่ง 24 ชม อุปกรณ์ป้องกัน ชุดอุปกรณ์ป้องกัน สนับเข่า สนับศอก สเก็ตบอร์ดน สเก็ตบอร์ด สนับเข่าสเก็ตบอร์ด Safety Skateboard surf skate roller protector 4PCS เข่า Pads Elbow Pads สำหรับรถจักรยานยนต์ Anti-Fall PE Elbow Guards Light เข่า Pads เข่าสำหรับขี่</v>
       </c>
       <c r="D4" t="str">
-        <v>https://img.lazcdn.com/g/ff/kf/S81ef86025e89434181201035964b980d5.jpg_80x80q80.jpg_.webp</v>
+        <v>https://www.lazada.co.th/products/24-safety-skateboard-surf-skate-roller-protector-4pcs-pads-elbow-pads-anti-fall-pe-elbow-guards-light-pads-i4005669842.html?spm=a2o4m.searchlistcategory.list.6.310851eenPmRTw</v>
       </c>
       <c r="E4" t="str">
-        <v>สนับเข่าศอก การ์ดศอก การ์ดเข่า สนับเข่า สนับศอก MOTOWOLF MDL1010/1034 สินค้าแท้สั่งตรงจากโรงงาน</v>
+        <v>฿368.00</v>
       </c>
       <c r="F4" t="str">
-        <v>https://www.lazada.co.th/products/motowolf-mdl10101034-i2961472198.html?spm=a2o4m.searchlistcategory.list.15.310851eenO3SfV</v>
+        <v>43% Off</v>
       </c>
       <c r="G4" t="str">
-        <v>฿649.00</v>
+        <v/>
       </c>
       <c r="H4" t="str">
-        <v>Coins discount ฿19.47</v>
+        <v/>
       </c>
       <c r="I4" t="str">
-        <v>293 sold</v>
+        <v>Bangkok</v>
       </c>
       <c r="J4" t="str">
-        <v>(71)</v>
-      </c>
-      <c r="K4" t="str">
-        <v>Udon Thani</v>
-      </c>
-      <c r="L4" t="str">
-        <v>21% Off</v>
-      </c>
-      <c r="M4" t="str">
-        <v>https://www.lazada.co.th/products/motowolf-mdl10101034-i2961472198.html?spm=a2o4m.searchlistcategory.list.8.310851eenO3SfV</v>
-      </c>
-      <c r="N4" t="str">
-        <v>https://img.lazcdn.com/g/ff/kf/S6b34148580ed492a933e99529862d4fbr.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://www.lazada.co.th/products/2-eva-mtb-i4990585845.html?spm=a2o4m.searchlistcategory.list.16.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/-i4978893785.html?spm=a2o4m.searchlistcategory.list.7.310851eenPmRTw</v>
       </c>
       <c r="B5" t="str">
-        <v>https://img.lazcdn.com/g/p/8d490a44b013620d14f934e909b59ee6.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/74d1440cb4c5840cc4dd92dbab5e39cf.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>Motorcycle Knee Protectors Electric vehicle PU knee pads for Leg Warmers Waterproof Thick Plush Adjustable Winter Leg Cover</v>
       </c>
       <c r="D5" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/-i4978893785.html?spm=a2o4m.searchlistcategory.list.8.310851eenPmRTw</v>
       </c>
       <c r="E5" t="str">
-        <v>2PCS Motorcycle Kneepads Elbow Guard EVA Soft MTB Racing Knee Elbow Protective Gear Skateboarding Knee Support</v>
+        <v>฿129.50</v>
       </c>
       <c r="F5" t="str">
-        <v>https://www.lazada.co.th/products/2-eva-mtb-i4990585845.html?spm=a2o4m.searchlistcategory.list.17.310851eenO3SfV</v>
+        <v>43% Off</v>
       </c>
       <c r="G5" t="str">
-        <v>฿537.00</v>
+        <v/>
       </c>
       <c r="H5" t="str">
-        <v>Coins discount ฿10.74</v>
+        <v/>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>Overseas</v>
       </c>
       <c r="J5" t="str">
-        <v/>
-      </c>
-      <c r="K5" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L5" t="str">
-        <v>37% Off</v>
-      </c>
-      <c r="M5" t="str">
-        <v/>
-      </c>
-      <c r="N5" t="str">
         <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://www.lazada.co.th/products/14-i1651768173.html?spm=a2o4m.searchlistcategory.list.18.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/1-mtb-i769000623.html?spm=a2o4m.searchlistcategory.list.9.310851eenPmRTw</v>
       </c>
       <c r="B6" t="str">
-        <v>https://img.lazcdn.com/g/p/80eea1c4d7e78297a321e6fa871d3295.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/b30386c687834e3cd05e48570073586c.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C6" t="str">
-        <v>https://www.lazada.co.th/products/14-i1651768173.html?spm=a2o4m.searchlistcategory.list.19.310851eenO3SfV</v>
+        <v>1 Pair Cycling Knee Brace and Elbow Guards Bicycle MTB Bike Motorcycle Riding Knee Support Protective Pads Guards Outdoor Sports Cycling Knee Protector Gear</v>
       </c>
       <c r="D6" t="str">
-        <v>https://img.lazcdn.com/g/p/f799b1be5f8f4cca889b004949abb900.jpg_80x80q80.jpg_.webp</v>
+        <v>https://www.lazada.co.th/products/1-mtb-i769000623.html?spm=a2o4m.searchlistcategory.list.10.310851eenPmRTw</v>
       </c>
       <c r="E6" t="str">
-        <v>การ์ดเข่า การ์ดศอกสั้นอย่างดี  ทนทาน แบบสั้น /14</v>
+        <v>฿227.00</v>
       </c>
       <c r="F6" t="str">
-        <v>https://www.lazada.co.th/products/14-i1651768173.html?spm=a2o4m.searchlistcategory.list.21.310851eenO3SfV</v>
+        <v>39% Off</v>
       </c>
       <c r="G6" t="str">
-        <v>฿299.00</v>
+        <v>62 sold</v>
       </c>
       <c r="H6" t="str">
-        <v/>
+        <v>(6)</v>
       </c>
       <c r="I6" t="str">
-        <v>37 sold</v>
+        <v>Overseas</v>
       </c>
       <c r="J6" t="str">
-        <v>(5)</v>
-      </c>
-      <c r="K6" t="str">
-        <v>Chiang Rai</v>
-      </c>
-      <c r="L6" t="str">
-        <v/>
-      </c>
-      <c r="M6" t="str">
-        <v>https://www.lazada.co.th/products/14-i1651768173.html?spm=a2o4m.searchlistcategory.list.20.310851eenO3SfV</v>
-      </c>
-      <c r="N6" t="str">
-        <v>https://img.lazcdn.com/g/p/80eea1c4d7e78297a321e6fa871d3295.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://www.lazada.co.th/products/far-na-i4951151385.html?spm=a2o4m.searchlistcategory.list.22.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/2-eva-mtb-i4990585845.html?spm=a2o4m.searchlistcategory.list.11.310851eenPmRTw</v>
       </c>
       <c r="B7" t="str">
-        <v>https://img.lazcdn.com/g/p/3e3b7a0f39ee6f9db185654e85a3a448.png_200x200q80.png_.webp</v>
+        <v>https://img.lazcdn.com/g/p/8d490a44b013620d14f934e909b59ee6.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C7" t="str">
-        <v>https://www.lazada.co.th/products/far-na-i4951151385.html?spm=a2o4m.searchlistcategory.list.23.310851eenO3SfV</v>
+        <v>2PCS Motorcycle Kneepads Elbow Guard EVA Soft MTB Racing Knee Elbow Protective Gear Skateboarding Knee Support</v>
       </c>
       <c r="D7" t="str">
-        <v>https://img.lazcdn.com/g/p/3e3b7a0f39ee6f9db185654e85a3a448.png_80x80q80.png_.webp</v>
+        <v>https://www.lazada.co.th/products/2-eva-mtb-i4990585845.html?spm=a2o4m.searchlistcategory.list.12.310851eenPmRTw</v>
       </c>
       <c r="E7" t="str">
-        <v>⚽ FAR NA</v>
+        <v>฿537.00</v>
       </c>
       <c r="F7" t="str">
-        <v>https://www.lazada.co.th/products/far-na-i4951151385.html?spm=a2o4m.searchlistcategory.list.27.310851eenO3SfV</v>
+        <v>37% Off</v>
       </c>
       <c r="G7" t="str">
-        <v>฿60.12</v>
+        <v/>
       </c>
       <c r="H7" t="str">
-        <v>Coins discount ฿3.01</v>
+        <v/>
       </c>
       <c r="I7" t="str">
-        <v/>
+        <v>Overseas</v>
       </c>
       <c r="J7" t="str">
-        <v>(1)</v>
-      </c>
-      <c r="K7" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L7" t="str">
-        <v>23% Off</v>
-      </c>
-      <c r="M7" t="str">
-        <v>https://www.lazada.co.th/products/far-na-i4951151385.html?spm=a2o4m.searchlistcategory.list.24.310851eenO3SfV</v>
-      </c>
-      <c r="N7" t="str">
-        <v>https://img.lazcdn.com/g/p/3e3b7a0f39ee6f9db185654e85a3a448.png_80x80q80.png_.webp</v>
+        <v>Coins discount ฿10.74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://www.lazada.co.th/products/2-2-100-14-i2527723123.html?spm=a2o4m.searchlistcategory.list.28.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/far-na-i4951151385.html?spm=a2o4m.searchlistcategory.list.13.310851eenPmRTw</v>
       </c>
       <c r="B8" t="str">
-        <v>https://img.lazcdn.com/g/p/5356888aee8e842fe4acd51c902cc85b.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/3e3b7a0f39ee6f9db185654e85a3a448.png_200x200q80.png_.webp</v>
       </c>
       <c r="C8" t="str">
-        <v>https://www.lazada.co.th/products/2-2-100-14-i2527723123.html?spm=a2o4m.searchlistcategory.list.29.310851eenO3SfV</v>
+        <v>⚽ FAR NA</v>
       </c>
       <c r="D8" t="str">
-        <v>https://img.lazcdn.com/g/p/e20306f1f006b082b6711bcc2f339bc6.jpg_80x80q80.jpg_.webp</v>
+        <v>https://www.lazada.co.th/products/far-na-i4951151385.html?spm=a2o4m.searchlistcategory.list.14.310851eenPmRTw</v>
       </c>
       <c r="E8" t="str">
-        <v>การ์ดเข่า +การ์ดศอก สนับเข่า มอเตอร์ไซค์ สแตนเลส เข่า 2ชิ้น+ ศอก 2ชิ้น (ของแท้100% ทนกว่าของราคาถูก ) /14</v>
+        <v>฿60.12</v>
       </c>
       <c r="F8" t="str">
-        <v>https://www.lazada.co.th/products/2-2-100-14-i2527723123.html?spm=a2o4m.searchlistcategory.list.31.310851eenO3SfV</v>
+        <v>23% Off</v>
       </c>
       <c r="G8" t="str">
-        <v>฿199.00</v>
+        <v/>
       </c>
       <c r="H8" t="str">
-        <v/>
+        <v>(1)</v>
       </c>
       <c r="I8" t="str">
-        <v>206 sold</v>
+        <v>Overseas</v>
       </c>
       <c r="J8" t="str">
-        <v>(51)</v>
-      </c>
-      <c r="K8" t="str">
-        <v>Chiang Rai</v>
-      </c>
-      <c r="L8" t="str">
-        <v>66% Off</v>
-      </c>
-      <c r="M8" t="str">
-        <v>https://www.lazada.co.th/products/2-2-100-14-i2527723123.html?spm=a2o4m.searchlistcategory.list.30.310851eenO3SfV</v>
-      </c>
-      <c r="N8" t="str">
-        <v>https://img.lazcdn.com/g/p/5356888aee8e842fe4acd51c902cc85b.jpg_80x80q80.jpg_.webp</v>
+        <v>Coins discount ฿3.01</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://www.lazada.co.th/products/-i5038899882.html?spm=a2o4m.searchlistcategory.list.32.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/-i5038899882.html?spm=a2o4m.searchlistcategory.list.15.310851eenPmRTw</v>
       </c>
       <c r="B9" t="str">
         <v>https://img.lazcdn.com/g/p/6e1d41d2c991ba1155045a390bd0e430.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C9" t="str">
-        <v>https://www.lazada.co.th/products/-i5038899882.html?spm=a2o4m.searchlistcategory.list.33.310851eenO3SfV</v>
+        <v>Motorcycle Elbow Knee Pads For Men Women, Knee Elbow Guard Protector, Ventilation Protective Gear For Cycling Bike Skateboarding Inline Roller Skating Bicycle Scooter</v>
       </c>
       <c r="D9" t="str">
-        <v>https://img.lazcdn.com/g/p/37765c83b43d6b0b91c41f102f2de596.jpg_80x80q80.jpg_.webp</v>
+        <v>https://www.lazada.co.th/products/-i5038899882.html?spm=a2o4m.searchlistcategory.list.16.310851eenPmRTw</v>
       </c>
       <c r="E9" t="str">
-        <v>Motorcycle Elbow Knee Pads For Men Women, Knee Elbow Guard Protector, Ventilation Protective Gear For Cycling Bike Skateboarding Inline Roller Skating Bicycle Scooter</v>
+        <v>฿317.29</v>
       </c>
       <c r="F9" t="str">
-        <v>https://www.lazada.co.th/products/-i5038899882.html?spm=a2o4m.searchlistcategory.list.35.310851eenO3SfV</v>
+        <v>28% Off</v>
       </c>
       <c r="G9" t="str">
-        <v>฿317.29</v>
+        <v/>
       </c>
       <c r="H9" t="str">
         <v/>
       </c>
       <c r="I9" t="str">
-        <v/>
+        <v>Overseas</v>
       </c>
       <c r="J9" t="str">
         <v/>
-      </c>
-      <c r="K9" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L9" t="str">
-        <v>28% Off</v>
-      </c>
-      <c r="M9" t="str">
-        <v>https://www.lazada.co.th/products/-i5038899882.html?spm=a2o4m.searchlistcategory.list.34.310851eenO3SfV</v>
-      </c>
-      <c r="N9" t="str">
-        <v>https://img.lazcdn.com/g/p/ad9225063f5346a05c0f4811af37b333.jpg_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://www.lazada.co.th/products/fast-delivery-4-unisex-4-pcs-set-motorcycle-protector-knee-pads-elbow-protector-stainless-steel-cross-country-i2763917881.html?spm=a2o4m.searchlistcategory.list.36.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/fast-delivery-4-unisex-4-pcs-set-motorcycle-protector-knee-pads-elbow-protector-stainless-steel-cross-country-i2763917881.html?spm=a2o4m.searchlistcategory.list.17.310851eenPmRTw</v>
       </c>
       <c r="B10" t="str">
         <v>https://img.lazcdn.com/g/p/23cb3338fe83322dfd0cfdf25f46fe6b.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C10" t="str">
-        <v/>
+        <v>Fast Delivery 🚛 4 Unisex ชิ้นรถจักรยานยนต์มอเตอร์ครอสขี่จักรยานข้อศอกเข่า 4 pcs/ set Motorcycle Protector Knee Pads Elbow Protector Stainless Steel Cross-country</v>
       </c>
       <c r="D10" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/fast-delivery-4-unisex-4-pcs-set-motorcycle-protector-knee-pads-elbow-protector-stainless-steel-cross-country-i2763917881.html?spm=a2o4m.searchlistcategory.list.18.310851eenPmRTw</v>
       </c>
       <c r="E10" t="str">
-        <v>Fast Delivery 🚛 4 Unisex ชิ้นรถจักรยานยนต์มอเตอร์ครอสขี่จักรยานข้อศอกเข่า 4 pcs/ set Motorcycle Protector Knee Pads Elbow Protector Stainless Steel Cross-country</v>
+        <v>฿399.00</v>
       </c>
       <c r="F10" t="str">
-        <v>https://www.lazada.co.th/products/fast-delivery-4-unisex-4-pcs-set-motorcycle-protector-knee-pads-elbow-protector-stainless-steel-cross-country-i2763917881.html?spm=a2o4m.searchlistcategory.list.37.310851eenO3SfV</v>
+        <v>67% Off</v>
       </c>
       <c r="G10" t="str">
-        <v>฿399.00</v>
+        <v/>
       </c>
       <c r="H10" t="str">
         <v/>
       </c>
       <c r="I10" t="str">
-        <v/>
+        <v>Bangkok</v>
       </c>
       <c r="J10" t="str">
-        <v/>
-      </c>
-      <c r="K10" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="L10" t="str">
-        <v>67% Off</v>
-      </c>
-      <c r="M10" t="str">
-        <v/>
-      </c>
-      <c r="N10" t="str">
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://www.lazada.co.th/products/-i5018769275.html?spm=a2o4m.searchlistcategory.list.38.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/1-3-i273778421.html?spm=a2o4m.searchlistcategory.list.19.310851eenPmRTw</v>
       </c>
       <c r="B11" t="str">
-        <v>https://img.lazcdn.com/g/p/1a6b67d45e301475aa47c34763706b1a.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/46495246a2d325945d9d34254508ce7a.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C11" t="str">
-        <v/>
+        <v>เกราะหลัง ดำแดง *สินค้าพร้อมส่ง สินค้าในประเทศ ได้รับสินค้าแน่นอน 1-3 วัน</v>
       </c>
       <c r="D11" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/1-3-i273778421.html?spm=a2o4m.searchlistcategory.list.20.310851eenPmRTw</v>
       </c>
       <c r="E11" t="str">
-        <v>Fitness Knee Support Patella Belt Elastic Bandage Tape Sport Strap Knee Pads Protector Band</v>
+        <v>฿500.00</v>
       </c>
       <c r="F11" t="str">
-        <v>https://www.lazada.co.th/products/-i5018769275.html?spm=a2o4m.searchlistcategory.list.39.310851eenO3SfV</v>
+        <v/>
       </c>
       <c r="G11" t="str">
-        <v>฿56.00</v>
+        <v>9 sold</v>
       </c>
       <c r="H11" t="str">
-        <v>Coins discount ฿2.24</v>
+        <v>(4)</v>
       </c>
       <c r="I11" t="str">
-        <v/>
+        <v>Chiang Rai</v>
       </c>
       <c r="J11" t="str">
-        <v>(1)</v>
-      </c>
-      <c r="K11" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L11" t="str">
-        <v>43% Off</v>
-      </c>
-      <c r="M11" t="str">
-        <v/>
-      </c>
-      <c r="N11" t="str">
-        <v/>
+        <v>Coins discount ฿10.00</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://www.lazada.co.th/products/1-3-i273778421.html?spm=a2o4m.searchlistcategory.list.40.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/bolehdeals-i4705159055.html?spm=a2o4m.searchlistcategory.list.21.310851eenPmRTw</v>
       </c>
       <c r="B12" t="str">
-        <v>https://img.lazcdn.com/g/p/46495246a2d325945d9d34254508ce7a.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/515bd614e39bc64fd65fcc86550ffea2.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C12" t="str">
-        <v/>
+        <v>BolehDeals Kids Skid Hip Pad Butt Pads Protector Adjustable for Skateboard Snowboarding</v>
       </c>
       <c r="D12" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/bolehdeals-i4705159055.html?spm=a2o4m.searchlistcategory.list.22.310851eenPmRTw</v>
       </c>
       <c r="E12" t="str">
-        <v>เกราะหลัง ดำแดง *สินค้าพร้อมส่ง สินค้าในประเทศ ได้รับสินค้าแน่นอน 1-3 วัน</v>
+        <v>฿113.00</v>
       </c>
       <c r="F12" t="str">
-        <v>https://www.lazada.co.th/products/1-3-i273778421.html?spm=a2o4m.searchlistcategory.list.41.310851eenO3SfV</v>
+        <v>40% Off</v>
       </c>
       <c r="G12" t="str">
-        <v>฿500.00</v>
+        <v/>
       </c>
       <c r="H12" t="str">
-        <v>Coins discount ฿10.00</v>
+        <v/>
       </c>
       <c r="I12" t="str">
-        <v>9 sold</v>
+        <v>Overseas</v>
       </c>
       <c r="J12" t="str">
-        <v>(4)</v>
-      </c>
-      <c r="K12" t="str">
-        <v>Chiang Rai</v>
-      </c>
-      <c r="L12" t="str">
-        <v/>
-      </c>
-      <c r="M12" t="str">
-        <v/>
-      </c>
-      <c r="N12" t="str">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://www.lazada.co.th/products/bolehdeals-i4705159055.html?spm=a2o4m.searchlistcategory.list.42.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/-i5018769275.html?spm=a2o4m.searchlistcategory.list.23.310851eenPmRTw</v>
       </c>
       <c r="B13" t="str">
-        <v>https://img.lazcdn.com/g/p/515bd614e39bc64fd65fcc86550ffea2.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/1a6b67d45e301475aa47c34763706b1a.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C13" t="str">
-        <v>https://www.lazada.co.th/products/bolehdeals-i4705159055.html?spm=a2o4m.searchlistcategory.list.43.310851eenO3SfV</v>
+        <v>Fitness Knee Support Patella Belt Elastic Bandage Tape Sport Strap Knee Pads Protector Band</v>
       </c>
       <c r="D13" t="str">
-        <v>https://img.lazcdn.com/g/p/4a6642775650c8838e9df456656fd801.jpg_80x80q80.jpg_.webp</v>
+        <v>https://www.lazada.co.th/products/-i5018769275.html?spm=a2o4m.searchlistcategory.list.24.310851eenPmRTw</v>
       </c>
       <c r="E13" t="str">
-        <v>BolehDeals Kids Skid Hip Pad Butt Pads Protector Adjustable for Skateboard Snowboarding</v>
+        <v>฿56.00</v>
       </c>
       <c r="F13" t="str">
-        <v>https://www.lazada.co.th/products/bolehdeals-i4705159055.html?spm=a2o4m.searchlistcategory.list.44.310851eenO3SfV</v>
+        <v>43% Off</v>
       </c>
       <c r="G13" t="str">
-        <v>฿113.00</v>
+        <v/>
       </c>
       <c r="H13" t="str">
-        <v/>
+        <v>(1)</v>
       </c>
       <c r="I13" t="str">
-        <v/>
+        <v>Overseas</v>
       </c>
       <c r="J13" t="str">
-        <v/>
-      </c>
-      <c r="K13" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L13" t="str">
-        <v>40% Off</v>
-      </c>
-      <c r="M13" t="str">
-        <v/>
-      </c>
-      <c r="N13" t="str">
-        <v/>
+        <v>Coins discount ฿2.24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://www.lazada.co.th/products/kkk01-15-i3941362164.html?spm=a2o4m.searchlistcategory.list.45.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/kkk01-15-i3941362164.html?spm=a2o4m.searchlistcategory.list.25.310851eenPmRTw</v>
       </c>
       <c r="B14" t="str">
         <v>https://img.lazcdn.com/g/p/09b2d95050c52de0a6f784a14699532b.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C14" t="str">
-        <v>https://www.lazada.co.th/products/kkk01-15-i3941362164.html?spm=a2o4m.searchlistcategory.list.46.310851eenO3SfV</v>
+        <v>การ์ดเข่าอย่างดี KKK01 /15</v>
       </c>
       <c r="D14" t="str">
-        <v>https://img.lazcdn.com/g/p/a489b0967f29fc4b9df2214502077fa4.jpg_80x80q80.jpg_.webp</v>
+        <v>https://www.lazada.co.th/products/kkk01-15-i3941362164.html?spm=a2o4m.searchlistcategory.list.26.310851eenPmRTw</v>
       </c>
       <c r="E14" t="str">
-        <v>การ์ดเข่าอย่างดี KKK01 /15</v>
+        <v>฿359.00</v>
       </c>
       <c r="F14" t="str">
-        <v>https://www.lazada.co.th/products/kkk01-15-i3941362164.html?spm=a2o4m.searchlistcategory.list.48.310851eenO3SfV</v>
+        <v/>
       </c>
       <c r="G14" t="str">
-        <v>฿359.00</v>
+        <v>18 sold</v>
       </c>
       <c r="H14" t="str">
-        <v/>
+        <v>(4)</v>
       </c>
       <c r="I14" t="str">
-        <v>18 sold</v>
+        <v>Chiang Rai</v>
       </c>
       <c r="J14" t="str">
-        <v>(4)</v>
-      </c>
-      <c r="K14" t="str">
-        <v>Chiang Rai</v>
-      </c>
-      <c r="L14" t="str">
-        <v/>
-      </c>
-      <c r="M14" t="str">
-        <v>https://www.lazada.co.th/products/kkk01-15-i3941362164.html?spm=a2o4m.searchlistcategory.list.47.310851eenO3SfV</v>
-      </c>
-      <c r="N14" t="str">
-        <v>https://img.lazcdn.com/g/p/09b2d95050c52de0a6f784a14699532b.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://www.lazada.co.th/products/bolehdeals-19-i5141729361.html?spm=a2o4m.searchlistcategory.list.49.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/bolehdeals-19-i5141729361.html?spm=a2o4m.searchlistcategory.list.27.310851eenPmRTw</v>
       </c>
       <c r="B15" t="str">
         <v>https://img.lazcdn.com/g/p/6cee378e552bd877e3bbfdd0cfa785a3.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C15" t="str">
-        <v/>
+        <v>BolehDeals 19inch Winter Motorcycle Knee Pads Leggings Covers for Hiking Travel</v>
       </c>
       <c r="D15" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/bolehdeals-19-i5141729361.html?spm=a2o4m.searchlistcategory.list.28.310851eenPmRTw</v>
       </c>
       <c r="E15" t="str">
-        <v>BolehDeals 19inch Winter Motorcycle Knee Pads Leggings Covers for Hiking Travel</v>
+        <v>฿300.00</v>
       </c>
       <c r="F15" t="str">
-        <v>https://www.lazada.co.th/products/bolehdeals-19-i5141729361.html?spm=a2o4m.searchlistcategory.list.50.310851eenO3SfV</v>
+        <v>40% Off</v>
       </c>
       <c r="G15" t="str">
-        <v>฿300.00</v>
+        <v/>
       </c>
       <c r="H15" t="str">
         <v/>
       </c>
       <c r="I15" t="str">
-        <v/>
+        <v>Overseas</v>
       </c>
       <c r="J15" t="str">
-        <v/>
-      </c>
-      <c r="K15" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L15" t="str">
-        <v>40% Off</v>
-      </c>
-      <c r="M15" t="str">
-        <v/>
-      </c>
-      <c r="N15" t="str">
         <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://www.lazada.co.th/products/4-ld-4-pcs-set-motorcycle-protector-knee-pads-elbow-protector-stainless-steel-cross-country-i2803595278.html?spm=a2o4m.searchlistcategory.list.51.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/4-ld-4-pcs-set-motorcycle-protector-knee-pads-elbow-protector-stainless-steel-cross-country-i2803595278.html?spm=a2o4m.searchlistcategory.list.29.310851eenPmRTw</v>
       </c>
       <c r="B16" t="str">
         <v>https://img.lazcdn.com/g/p/318974ab14e9abd5a6ad54522efc04e1.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C16" t="str">
-        <v/>
+        <v>4 ชิ้นรถจักรยานยนต์มอเตอร์ครอสขี่จักรยานข้อศอกเข่า LD 4 pcs/ set Motorcycle Protector Knee Pads Elbow Protector Stainless Steel Cross-country</v>
       </c>
       <c r="D16" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/4-ld-4-pcs-set-motorcycle-protector-knee-pads-elbow-protector-stainless-steel-cross-country-i2803595278.html?spm=a2o4m.searchlistcategory.list.30.310851eenPmRTw</v>
       </c>
       <c r="E16" t="str">
-        <v>4 ชิ้นรถจักรยานยนต์มอเตอร์ครอสขี่จักรยานข้อศอกเข่า LD 4 pcs/ set Motorcycle Protector Knee Pads Elbow Protector Stainless Steel Cross-country</v>
+        <v>฿387.00</v>
       </c>
       <c r="F16" t="str">
-        <v>https://www.lazada.co.th/products/4-ld-4-pcs-set-motorcycle-protector-knee-pads-elbow-protector-stainless-steel-cross-country-i2803595278.html?spm=a2o4m.searchlistcategory.list.52.310851eenO3SfV</v>
+        <v>74% Off</v>
       </c>
       <c r="G16" t="str">
-        <v>฿387.00</v>
+        <v>9 sold</v>
       </c>
       <c r="H16" t="str">
-        <v/>
+        <v>(1)</v>
       </c>
       <c r="I16" t="str">
-        <v>9 sold</v>
+        <v>Bangkok</v>
       </c>
       <c r="J16" t="str">
-        <v>(1)</v>
-      </c>
-      <c r="K16" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="L16" t="str">
-        <v>74% Off</v>
-      </c>
-      <c r="M16" t="str">
-        <v/>
-      </c>
-      <c r="N16" t="str">
         <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://www.lazada.co.th/products/pro-k-208-i354148934.html?spm=a2o4m.searchlistcategory.list.53.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/2-2-100-14-i2527723123.html?spm=a2o4m.searchlistcategory.list.31.310851eenPmRTw</v>
       </c>
       <c r="B17" t="str">
-        <v>https://img.lazcdn.com/g/p/ba5ea72ec5c7af902c3eba6f4850d6cb.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/5356888aee8e842fe4acd51c902cc85b.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C17" t="str">
-        <v/>
+        <v>การ์ดเข่า +การ์ดศอก สนับเข่า มอเตอร์ไซค์ สแตนเลส เข่า 2ชิ้น+ ศอก 2ชิ้น (ของแท้100% ทนกว่าของราคาถูก ) /14</v>
       </c>
       <c r="D17" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/2-2-100-14-i2527723123.html?spm=a2o4m.searchlistcategory.list.32.310851eenPmRTw</v>
       </c>
       <c r="E17" t="str">
-        <v>การ์ดศอก+เข่า Pro... รุ่น K-208</v>
+        <v>฿199.00</v>
       </c>
       <c r="F17" t="str">
-        <v>https://www.lazada.co.th/products/pro-k-208-i354148934.html?spm=a2o4m.searchlistcategory.list.54.310851eenO3SfV</v>
+        <v>66% Off</v>
       </c>
       <c r="G17" t="str">
-        <v>฿570.00</v>
+        <v>206 sold</v>
       </c>
       <c r="H17" t="str">
-        <v/>
+        <v>(51)</v>
       </c>
       <c r="I17" t="str">
-        <v>41 sold</v>
+        <v>Chiang Rai</v>
       </c>
       <c r="J17" t="str">
-        <v>(6)</v>
-      </c>
-      <c r="K17" t="str">
-        <v>Ratchaburi</v>
-      </c>
-      <c r="L17" t="str">
-        <v/>
-      </c>
-      <c r="M17" t="str">
-        <v/>
-      </c>
-      <c r="N17" t="str">
         <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://www.lazada.co.th/products/bolehdeals-i5138266433.html?spm=a2o4m.searchlistcategory.list.55.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/pro-k-208-i354148934.html?spm=a2o4m.searchlistcategory.list.33.310851eenPmRTw</v>
       </c>
       <c r="B18" t="str">
-        <v>https://img.lazcdn.com/g/p/178b202bd533e6f3f3b6e6c0235d8a84.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/ba5ea72ec5c7af902c3eba6f4850d6cb.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C18" t="str">
-        <v/>
+        <v>การ์ดศอก+เข่า Pro... รุ่น K-208</v>
       </c>
       <c r="D18" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/pro-k-208-i354148934.html?spm=a2o4m.searchlistcategory.list.34.310851eenPmRTw</v>
       </c>
       <c r="E18" t="str">
-        <v>BolehDeals Motorcycle Knee Pads Protector Motorcycle Windproof Leg Gaiter Knee Mat Warm Leggings Covers for Hiking Snowboarding</v>
+        <v>฿570.00</v>
       </c>
       <c r="F18" t="str">
-        <v>https://www.lazada.co.th/products/bolehdeals-i5138266433.html?spm=a2o4m.searchlistcategory.list.56.310851eenO3SfV</v>
+        <v/>
       </c>
       <c r="G18" t="str">
-        <v>฿254.00</v>
+        <v>41 sold</v>
       </c>
       <c r="H18" t="str">
-        <v/>
+        <v>(6)</v>
       </c>
       <c r="I18" t="str">
-        <v/>
+        <v>Ratchaburi</v>
       </c>
       <c r="J18" t="str">
-        <v/>
-      </c>
-      <c r="K18" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L18" t="str">
-        <v>40% Off</v>
-      </c>
-      <c r="M18" t="str">
-        <v/>
-      </c>
-      <c r="N18" t="str">
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://www.lazada.co.th/products/fox-2-3-i2615676286.html?spm=a2o4m.searchlistcategory.list.57.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/bolehdeals-i5138266433.html?spm=a2o4m.searchlistcategory.list.35.310851eenPmRTw</v>
       </c>
       <c r="B19" t="str">
-        <v>https://img.lazcdn.com/g/p/6dadddcfaa6b2708bcd6df1cef45a569.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/178b202bd533e6f3f3b6e6c0235d8a84.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C19" t="str">
-        <v/>
+        <v>BolehDeals Motorcycle Knee Pads Protector Motorcycle Windproof Leg Gaiter Knee Mat Warm Leggings Covers for Hiking Snowboarding</v>
       </c>
       <c r="D19" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/bolehdeals-i5138266433.html?spm=a2o4m.searchlistcategory.list.36.310851eenPmRTw</v>
       </c>
       <c r="E19" t="str">
-        <v>เกราะหลัง Fox (สินค้าใหม่ทุกชิ้นตอบแชทไว้ไม่ทิ้งให้รอนานพร้อมส่งทันทีได้รับสินค้า2-3วัน)</v>
+        <v>฿257.00</v>
       </c>
       <c r="F19" t="str">
-        <v>https://www.lazada.co.th/products/fox-2-3-i2615676286.html?spm=a2o4m.searchlistcategory.list.58.310851eenO3SfV</v>
+        <v>40% Off</v>
       </c>
       <c r="G19" t="str">
-        <v>฿500.00</v>
+        <v/>
       </c>
       <c r="H19" t="str">
-        <v>Coins discount ฿10.00</v>
+        <v/>
       </c>
       <c r="I19" t="str">
-        <v/>
+        <v>Overseas</v>
       </c>
       <c r="J19" t="str">
-        <v/>
-      </c>
-      <c r="K19" t="str">
-        <v>Chiang Rai</v>
-      </c>
-      <c r="L19" t="str">
-        <v/>
-      </c>
-      <c r="M19" t="str">
-        <v/>
-      </c>
-      <c r="N19" t="str">
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://www.lazada.co.th/products/vemar-s-186-4-i309342206.html?spm=a2o4m.searchlistcategory.list.59.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/fox-2-3-i2615676286.html?spm=a2o4m.searchlistcategory.list.37.310851eenPmRTw</v>
       </c>
       <c r="B20" t="str">
-        <v>https://img.lazcdn.com/g/p/57c8c84ee9efc4df9c61f552c3c68604.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/6dadddcfaa6b2708bcd6df1cef45a569.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C20" t="str">
-        <v/>
+        <v>เกราะหลัง Fox (สินค้าใหม่ทุกชิ้นตอบแชทไว้ไม่ทิ้งให้รอนานพร้อมส่งทันทีได้รับสินค้า2-3วัน)</v>
       </c>
       <c r="D20" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/fox-2-3-i2615676286.html?spm=a2o4m.searchlistcategory.list.38.310851eenPmRTw</v>
       </c>
       <c r="E20" t="str">
-        <v>การ์ดศอก + เข่า Vemar S-186 มี 4 ชิ้น</v>
+        <v>฿500.00</v>
       </c>
       <c r="F20" t="str">
-        <v>https://www.lazada.co.th/products/vemar-s-186-4-i309342206.html?spm=a2o4m.searchlistcategory.list.60.310851eenO3SfV</v>
+        <v/>
       </c>
       <c r="G20" t="str">
-        <v>฿549.00</v>
+        <v/>
       </c>
       <c r="H20" t="str">
         <v/>
       </c>
       <c r="I20" t="str">
-        <v>63 sold</v>
+        <v>Chiang Rai</v>
       </c>
       <c r="J20" t="str">
-        <v>(12)</v>
-      </c>
-      <c r="K20" t="str">
-        <v>Ratchaburi</v>
-      </c>
-      <c r="L20" t="str">
-        <v/>
-      </c>
-      <c r="M20" t="str">
-        <v/>
-      </c>
-      <c r="N20" t="str">
-        <v/>
+        <v>Coins discount ฿10.00</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://www.lazada.co.th/products/motorcycle-protector-knee-4-4-pcs-pads-elbow-protector-stainless-steel-cross-country-i2723113545.html?spm=a2o4m.searchlistcategory.list.61.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/motorcycle-protector-knee-4-4-pcs-pads-elbow-protector-stainless-steel-cross-country-i2723113545.html?spm=a2o4m.searchlistcategory.list.39.310851eenPmRTw</v>
       </c>
       <c r="B21" t="str">
         <v>https://img.lazcdn.com/g/p/429ef4d6d48237b73e19f54cbe11c6c4.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C21" t="str">
-        <v/>
+        <v>Motorcycle Protector Knee 4 ชิ้นรถจักรยานยนต์มอเตอร์ครอสขี่จักรยานข้อศอกเข่า 4 pcs/ Pads Elbow Protector Stainless Steel Cross-country</v>
       </c>
       <c r="D21" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/motorcycle-protector-knee-4-4-pcs-pads-elbow-protector-stainless-steel-cross-country-i2723113545.html?spm=a2o4m.searchlistcategory.list.40.310851eenPmRTw</v>
       </c>
       <c r="E21" t="str">
-        <v>Motorcycle Protector Knee 4 ชิ้นรถจักรยานยนต์มอเตอร์ครอสขี่จักรยานข้อศอกเข่า 4 pcs/ Pads Elbow Protector Stainless Steel Cross-country</v>
+        <v>฿399.00</v>
       </c>
       <c r="F21" t="str">
-        <v>https://www.lazada.co.th/products/motorcycle-protector-knee-4-4-pcs-pads-elbow-protector-stainless-steel-cross-country-i2723113545.html?spm=a2o4m.searchlistcategory.list.62.310851eenO3SfV</v>
+        <v>47% Off</v>
       </c>
       <c r="G21" t="str">
-        <v>฿399.00</v>
+        <v/>
       </c>
       <c r="H21" t="str">
         <v/>
       </c>
       <c r="I21" t="str">
-        <v/>
+        <v>Bangkok</v>
       </c>
       <c r="J21" t="str">
-        <v/>
-      </c>
-      <c r="K21" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="L21" t="str">
-        <v>47% Off</v>
-      </c>
-      <c r="M21" t="str">
-        <v/>
-      </c>
-      <c r="N21" t="str">
         <v/>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://www.lazada.co.th/products/-i4978893785.html?spm=a2o4m.searchlistcategory.list.63.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/1-i4192089643.html?spm=a2o4m.searchlistcategory.list.41.310851eenPmRTw</v>
       </c>
       <c r="B22" t="str">
-        <v>https://img.lazcdn.com/g/p/74d1440cb4c5840cc4dd92dbab5e39cf.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/4df8b703650f2c2601a11f7134f952a5.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C22" t="str">
-        <v/>
+        <v>1PC Adjustable Elastic Knee Pads Breathable Fitness Knee Support Brace Safety Protection Strap Sports Accessories</v>
       </c>
       <c r="D22" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/1-i4192089643.html?spm=a2o4m.searchlistcategory.list.42.310851eenPmRTw</v>
       </c>
       <c r="E22" t="str">
-        <v>Motorcycle Knee Protectors Electric vehicle PU knee pads for Leg Warmers Waterproof Thick Plush Adjustable Winter Leg Cover</v>
+        <v>฿56.00</v>
       </c>
       <c r="F22" t="str">
-        <v>https://www.lazada.co.th/products/-i4978893785.html?spm=a2o4m.searchlistcategory.list.64.310851eenO3SfV</v>
+        <v>50% Off</v>
       </c>
       <c r="G22" t="str">
-        <v>฿129.50</v>
+        <v>511 sold</v>
       </c>
       <c r="H22" t="str">
-        <v/>
+        <v>(102)</v>
       </c>
       <c r="I22" t="str">
-        <v/>
+        <v>Overseas</v>
       </c>
       <c r="J22" t="str">
-        <v/>
-      </c>
-      <c r="K22" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L22" t="str">
-        <v>43% Off</v>
-      </c>
-      <c r="M22" t="str">
-        <v/>
-      </c>
-      <c r="N22" t="str">
-        <v/>
+        <v>Coins discount ฿3.92</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://www.lazada.co.th/products/sulaitecamouflage-i1911846305.html?spm=a2o4m.searchlistcategory.list.65.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/vemar-s-186-4-i309342206.html?spm=a2o4m.searchlistcategory.list.43.310851eenPmRTw</v>
       </c>
       <c r="B23" t="str">
-        <v>https://img.lazcdn.com/g/p/8afc4f9f267f447bf5dc9a69d8905451.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/57c8c84ee9efc4df9c61f552c3c68604.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C23" t="str">
-        <v>https://www.lazada.co.th/products/sulaitecamouflage-i1911846305.html?spm=a2o4m.searchlistcategory.list.66.310851eenO3SfV</v>
+        <v>การ์ดศอก + เข่า Vemar S-186 มี 4 ชิ้น</v>
       </c>
       <c r="D23" t="str">
-        <v>https://img.lazcdn.com/g/p/8a16a4bf45422588df2ea613f0745f0a.jpg_80x80q80.jpg_.webp</v>
+        <v>https://www.lazada.co.th/products/vemar-s-186-4-i309342206.html?spm=a2o4m.searchlistcategory.list.44.310851eenPmRTw</v>
       </c>
       <c r="E23" t="str">
-        <v>SULAITE Winter Motorcycle Elbow Knee Pads Riding Protective Gear Camouflage</v>
+        <v>฿549.00</v>
       </c>
       <c r="F23" t="str">
-        <v>https://www.lazada.co.th/products/sulaitecamouflage-i1911846305.html?spm=a2o4m.searchlistcategory.list.67.310851eenO3SfV</v>
+        <v/>
       </c>
       <c r="G23" t="str">
-        <v>฿248.00</v>
+        <v>63 sold</v>
       </c>
       <c r="H23" t="str">
-        <v/>
+        <v>(12)</v>
       </c>
       <c r="I23" t="str">
-        <v>31 sold</v>
+        <v>Ratchaburi</v>
       </c>
       <c r="J23" t="str">
-        <v>(6)</v>
-      </c>
-      <c r="K23" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L23" t="str">
-        <v>50% Off</v>
-      </c>
-      <c r="M23" t="str">
-        <v/>
-      </c>
-      <c r="N23" t="str">
         <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://www.lazada.co.th/products/1-i4192089643.html?spm=a2o4m.searchlistcategory.list.68.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/big-sale-4-pcs-i2764100218.html?spm=a2o4m.searchlistcategory.list.45.310851eenPmRTw</v>
       </c>
       <c r="B24" t="str">
-        <v>https://img.lazcdn.com/g/p/4df8b703650f2c2601a11f7134f952a5.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/3a82cbe50a1257bfa12838445f893b67.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C24" t="str">
-        <v/>
+        <v>Big Sale 4 PCS ชุดการ์ดศอกและเข่า การ์ดเข่า สนับเข่า สนับศอก สำหรับขี่มอเตอร์ไซด์ ขนาดฟรีไซด์</v>
       </c>
       <c r="D24" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/big-sale-4-pcs-i2764100218.html?spm=a2o4m.searchlistcategory.list.46.310851eenPmRTw</v>
       </c>
       <c r="E24" t="str">
-        <v>1PC Adjustable Elastic Knee Pads Breathable Fitness Knee Support Brace Safety Protection Strap Sports Accessories</v>
+        <v>฿395.00</v>
       </c>
       <c r="F24" t="str">
-        <v>https://www.lazada.co.th/products/1-i4192089643.html?spm=a2o4m.searchlistcategory.list.69.310851eenO3SfV</v>
+        <v>67% Off</v>
       </c>
       <c r="G24" t="str">
-        <v>฿56.00</v>
+        <v>5 sold</v>
       </c>
       <c r="H24" t="str">
-        <v>Coins discount ฿3.92</v>
+        <v>(2)</v>
       </c>
       <c r="I24" t="str">
-        <v>511 sold</v>
+        <v>Bangkok</v>
       </c>
       <c r="J24" t="str">
-        <v>(102)</v>
-      </c>
-      <c r="K24" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L24" t="str">
-        <v>50% Off</v>
-      </c>
-      <c r="M24" t="str">
-        <v/>
-      </c>
-      <c r="N24" t="str">
         <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://www.lazada.co.th/products/big-sale-4-pcs-i2764100218.html?spm=a2o4m.searchlistcategory.list.70.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/idream-1-pads-motocross-racing-i702850837.html?spm=a2o4m.searchlistcategory.list.47.310851eenPmRTw</v>
       </c>
       <c r="B25" t="str">
-        <v>https://img.lazcdn.com/g/p/3a82cbe50a1257bfa12838445f893b67.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/f216e29508b59928088f7ae1e3900fe4.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C25" t="str">
-        <v/>
+        <v>IDREAM 1 คู่รถจักรยานยนต์เข่า Pads ป้องกัน Motocross ขี่มอเตอร์ไบค์ Racing ป้องกัน</v>
       </c>
       <c r="D25" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/idream-1-pads-motocross-racing-i702850837.html?spm=a2o4m.searchlistcategory.list.48.310851eenPmRTw</v>
       </c>
       <c r="E25" t="str">
-        <v>Big Sale 4 PCS ชุดการ์ดศอกและเข่า การ์ดเข่า สนับเข่า สนับศอก สำหรับขี่มอเตอร์ไซด์ ขนาดฟรีไซด์</v>
+        <v>฿329.00</v>
       </c>
       <c r="F25" t="str">
-        <v>https://www.lazada.co.th/products/big-sale-4-pcs-i2764100218.html?spm=a2o4m.searchlistcategory.list.71.310851eenO3SfV</v>
+        <v>41% Off</v>
       </c>
       <c r="G25" t="str">
-        <v>฿395.00</v>
+        <v/>
       </c>
       <c r="H25" t="str">
         <v/>
       </c>
       <c r="I25" t="str">
-        <v>5 sold</v>
+        <v>Overseas</v>
       </c>
       <c r="J25" t="str">
-        <v>(2)</v>
-      </c>
-      <c r="K25" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="L25" t="str">
-        <v>67% Off</v>
-      </c>
-      <c r="M25" t="str">
-        <v/>
-      </c>
-      <c r="N25" t="str">
         <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://www.lazada.co.th/products/idream-1-pads-motocross-racing-i702850837.html?spm=a2o4m.searchlistcategory.list.72.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/4-i5045700842.html?spm=a2o4m.searchlistcategory.list.49.310851eenPmRTw</v>
       </c>
       <c r="B26" t="str">
-        <v>https://img.lazcdn.com/g/p/f216e29508b59928088f7ae1e3900fe4.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/79a174a91c7dc3accce69bdbc74fd2d4.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C26" t="str">
-        <v/>
+        <v>4Pcs/Set Motorcycle Kneepad Stainless Steel Moto Elbow Knee Pads Motocross Racing Protective Gear Protector Guards Kit</v>
       </c>
       <c r="D26" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/4-i5045700842.html?spm=a2o4m.searchlistcategory.list.50.310851eenPmRTw</v>
       </c>
       <c r="E26" t="str">
-        <v>IDREAM 1 คู่รถจักรยานยนต์เข่า Pads ป้องกัน Motocross ขี่มอเตอร์ไบค์ Racing ป้องกัน</v>
+        <v>฿358.00</v>
       </c>
       <c r="F26" t="str">
-        <v>https://www.lazada.co.th/products/idream-1-pads-motocross-racing-i702850837.html?spm=a2o4m.searchlistcategory.list.73.310851eenO3SfV</v>
+        <v>6% Off</v>
       </c>
       <c r="G26" t="str">
-        <v>฿329.00</v>
+        <v/>
       </c>
       <c r="H26" t="str">
         <v/>
       </c>
       <c r="I26" t="str">
-        <v/>
+        <v>Overseas</v>
       </c>
       <c r="J26" t="str">
-        <v/>
-      </c>
-      <c r="K26" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L26" t="str">
-        <v>41% Off</v>
-      </c>
-      <c r="M26" t="str">
-        <v/>
-      </c>
-      <c r="N26" t="str">
         <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://www.lazada.co.th/products/4-i5045700842.html?spm=a2o4m.searchlistcategory.list.74.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/2-14-i1618670823.html?spm=a2o4m.searchlistcategory.list.51.310851eenPmRTw</v>
       </c>
       <c r="B27" t="str">
-        <v>https://img.lazcdn.com/g/p/79a174a91c7dc3accce69bdbc74fd2d4.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/e20306f1f006b082b6711bcc2f339bc6.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C27" t="str">
-        <v/>
+        <v>การ์ดเข่า สนับเข่า มอเตอร์ไซค์ สแตนเลส เข่า 2ชิ้น /14</v>
       </c>
       <c r="D27" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/2-14-i1618670823.html?spm=a2o4m.searchlistcategory.list.52.310851eenPmRTw</v>
       </c>
       <c r="E27" t="str">
-        <v>4Pcs/Set Motorcycle Kneepad Stainless Steel Moto Elbow Knee Pads Motocross Racing Protective Gear Protector Guards Kit</v>
+        <v>฿295.00</v>
       </c>
       <c r="F27" t="str">
-        <v>https://www.lazada.co.th/products/4-i5045700842.html?spm=a2o4m.searchlistcategory.list.75.310851eenO3SfV</v>
+        <v>70% Off</v>
       </c>
       <c r="G27" t="str">
-        <v>฿358.00</v>
+        <v>38 sold</v>
       </c>
       <c r="H27" t="str">
-        <v/>
+        <v>(6)</v>
       </c>
       <c r="I27" t="str">
-        <v/>
+        <v>Chiang Rai</v>
       </c>
       <c r="J27" t="str">
-        <v/>
-      </c>
-      <c r="K27" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L27" t="str">
-        <v>6% Off</v>
-      </c>
-      <c r="M27" t="str">
-        <v/>
-      </c>
-      <c r="N27" t="str">
         <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://www.lazada.co.th/products/2-14-i1618670823.html?spm=a2o4m.searchlistcategory.list.76.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/rockbros-pu-i3693827528.html?spm=a2o4m.searchlistcategory.list.53.310851eenPmRTw</v>
       </c>
       <c r="B28" t="str">
-        <v>https://img.lazcdn.com/g/p/e20306f1f006b082b6711bcc2f339bc6.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/d86b27bebc85f8d5ef7713039d8312b6.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C28" t="str">
-        <v>https://www.lazada.co.th/products/2-14-i1618670823.html?spm=a2o4m.searchlistcategory.list.77.310851eenO3SfV</v>
+        <v>ROCKBROS Motorcycle Shin Guard Thickened PU Elbow Pads Sun Protection Arm Sleeves Ice Silk Breathable Cycling Protector Gear</v>
       </c>
       <c r="D28" t="str">
-        <v>https://img.lazcdn.com/g/p/e20306f1f006b082b6711bcc2f339bc6.jpg_80x80q80.jpg_.webp</v>
+        <v>https://www.lazada.co.th/products/rockbros-pu-i3693827528.html?spm=a2o4m.searchlistcategory.list.54.310851eenPmRTw</v>
       </c>
       <c r="E28" t="str">
-        <v>การ์ดเข่า สนับเข่า มอเตอร์ไซค์ สแตนเลส เข่า 2ชิ้น /14</v>
+        <v>฿570.25</v>
       </c>
       <c r="F28" t="str">
-        <v>https://www.lazada.co.th/products/2-14-i1618670823.html?spm=a2o4m.searchlistcategory.list.78.310851eenO3SfV</v>
+        <v>19% Off</v>
       </c>
       <c r="G28" t="str">
-        <v>฿295.00</v>
+        <v>24 sold</v>
       </c>
       <c r="H28" t="str">
-        <v/>
+        <v>(11)</v>
       </c>
       <c r="I28" t="str">
-        <v>38 sold</v>
+        <v>Overseas</v>
       </c>
       <c r="J28" t="str">
-        <v>(6)</v>
-      </c>
-      <c r="K28" t="str">
-        <v>Chiang Rai</v>
-      </c>
-      <c r="L28" t="str">
-        <v>70% Off</v>
-      </c>
-      <c r="M28" t="str">
-        <v/>
-      </c>
-      <c r="N28" t="str">
-        <v/>
+        <v>Coins discount ฿11.41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://www.lazada.co.th/products/pro-biker-2-2-i4531207728.html?spm=a2o4m.searchlistcategory.list.79.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/sulaitecamouflage-i1911846305.html?spm=a2o4m.searchlistcategory.list.55.310851eenPmRTw</v>
       </c>
       <c r="B29" t="str">
-        <v>https://img.lazcdn.com/g/p/dcf62b8b9155f472c1d17dc9136d9940.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/8afc4f9f267f447bf5dc9a69d8905451.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C29" t="str">
-        <v>https://www.lazada.co.th/products/pro-biker-2-2-i4531207728.html?spm=a2o4m.searchlistcategory.list.80.310851eenO3SfV</v>
+        <v>SULAITE Winter Motorcycle Elbow Knee Pads Riding Protective Gear Camouflage</v>
       </c>
       <c r="D29" t="str">
-        <v>https://img.lazcdn.com/g/p/9542c16ffa85d398212a55d06115fa7d.jpg_80x80q80.jpg_.webp</v>
+        <v>https://www.lazada.co.th/products/sulaitecamouflage-i1911846305.html?spm=a2o4m.searchlistcategory.list.56.310851eenPmRTw</v>
       </c>
       <c r="E29" t="str">
-        <v>PRO-BIKER สนับเข่ามอเตอร์ไซค์ การ์ดเข่าวิบาก อย่างดี ของแท้ ทนทาน สแตนเลสเข่า 2ชิ้น+ ศอก 2ชิ้น แบบเข่าพับได้ แข็งแรงทนทาน น้ำหนักเบา การ์ดเข่า การ์ดศอก สนับแข้งสนับเข่าสนับศอก</v>
+        <v>฿248.00</v>
       </c>
       <c r="F29" t="str">
-        <v>https://www.lazada.co.th/products/pro-biker-2-2-i4531207728.html?spm=a2o4m.searchlistcategory.list.81.310851eenO3SfV</v>
+        <v>50% Off</v>
       </c>
       <c r="G29" t="str">
-        <v>฿299.00</v>
+        <v>31 sold</v>
       </c>
       <c r="H29" t="str">
-        <v/>
+        <v>(6)</v>
       </c>
       <c r="I29" t="str">
-        <v>132 sold</v>
+        <v>Overseas</v>
       </c>
       <c r="J29" t="str">
-        <v>(51)</v>
-      </c>
-      <c r="K29" t="str">
-        <v>Samut Sakhon</v>
-      </c>
-      <c r="L29" t="str">
-        <v>67% Off</v>
-      </c>
-      <c r="M29" t="str">
-        <v/>
-      </c>
-      <c r="N29" t="str">
         <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://www.lazada.co.th/products/rockbros-pu-i3693827528.html?spm=a2o4m.searchlistcategory.list.82.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/1-soxvt3-i5040317708.html?spm=a2o4m.searchlistcategory.list.57.310851eenPmRTw</v>
       </c>
       <c r="B30" t="str">
-        <v>https://img.lazcdn.com/g/p/d86b27bebc85f8d5ef7713039d8312b6.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/1a145cf552b056ba99e548da79370352.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C30" t="str">
-        <v/>
+        <v>1 Pair Motorcycle Knee Motocross Motorbike Riding Racing Protective Gear Protect Outdoor Sport Safety Pads Guards soxvt3</v>
       </c>
       <c r="D30" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/1-soxvt3-i5040317708.html?spm=a2o4m.searchlistcategory.list.58.310851eenPmRTw</v>
       </c>
       <c r="E30" t="str">
-        <v>ROCKBROS Motorcycle Shin Guard Thickened PU Elbow Pads Sun Protection Arm Sleeves Ice Silk Breathable Cycling Protector Gear</v>
+        <v>฿510.00</v>
       </c>
       <c r="F30" t="str">
-        <v>https://www.lazada.co.th/products/rockbros-pu-i3693827528.html?spm=a2o4m.searchlistcategory.list.83.310851eenO3SfV</v>
+        <v>6% Off</v>
       </c>
       <c r="G30" t="str">
-        <v>฿570.25</v>
+        <v/>
       </c>
       <c r="H30" t="str">
-        <v>Coins discount ฿11.41</v>
+        <v/>
       </c>
       <c r="I30" t="str">
-        <v>24 sold</v>
+        <v>Overseas</v>
       </c>
       <c r="J30" t="str">
-        <v>(11)</v>
-      </c>
-      <c r="K30" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L30" t="str">
-        <v>19% Off</v>
-      </c>
-      <c r="M30" t="str">
-        <v/>
-      </c>
-      <c r="N30" t="str">
-        <v/>
+        <v>Coins discount ฿25.50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://www.lazada.co.th/products/1-soxvt3-i5040317708.html?spm=a2o4m.searchlistcategory.list.84.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/sme-na-i4872353472.html?spm=a2o4m.searchlistcategory.list.59.310851eenPmRTw</v>
       </c>
       <c r="B31" t="str">
-        <v>https://img.lazcdn.com/g/p/1a145cf552b056ba99e548da79370352.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/1a216021e2f28bb8cca3526eba1b6ed8.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C31" t="str">
-        <v>https://www.lazada.co.th/products/1-soxvt3-i5040317708.html?spm=a2o4m.searchlistcategory.list.85.310851eenO3SfV</v>
+        <v>SME NA</v>
       </c>
       <c r="D31" t="str">
-        <v>https://img.lazcdn.com/g/p/e06a7aeaf544df4d6dac6c2b267b2535.jpg_80x80q80.jpg_.webp</v>
+        <v>https://www.lazada.co.th/products/sme-na-i4872353472.html?spm=a2o4m.searchlistcategory.list.60.310851eenPmRTw</v>
       </c>
       <c r="E31" t="str">
-        <v>1 Pair Motorcycle Knee Motocross Motorbike Riding Racing Protective Gear Protect Outdoor Sport Safety Pads Guards soxvt3</v>
+        <v>฿98.58</v>
       </c>
       <c r="F31" t="str">
-        <v>https://www.lazada.co.th/products/1-soxvt3-i5040317708.html?spm=a2o4m.searchlistcategory.list.86.310851eenO3SfV</v>
+        <v>23% Off</v>
       </c>
       <c r="G31" t="str">
-        <v>฿510.00</v>
+        <v/>
       </c>
       <c r="H31" t="str">
-        <v>Coins discount ฿25.50</v>
+        <v/>
       </c>
       <c r="I31" t="str">
-        <v/>
+        <v>Overseas</v>
       </c>
       <c r="J31" t="str">
-        <v/>
-      </c>
-      <c r="K31" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L31" t="str">
-        <v>6% Off</v>
-      </c>
-      <c r="M31" t="str">
-        <v/>
-      </c>
-      <c r="N31" t="str">
-        <v/>
+        <v>Coins discount ฿4.93</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://www.lazada.co.th/products/sme-na-i4872353472.html?spm=a2o4m.searchlistcategory.list.87.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/motowolf-mdl10101034-i2961472198.html?spm=a2o4m.searchlistcategory.list.61.310851eenPmRTw</v>
       </c>
       <c r="B32" t="str">
-        <v>https://img.lazcdn.com/g/p/1a216021e2f28bb8cca3526eba1b6ed8.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/ff/kf/S99e3171718674ff387c241028d7b5ae5m.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C32" t="str">
-        <v/>
+        <v>สนับเข่าศอก การ์ดศอก การ์ดเข่า สนับเข่า สนับศอก MOTOWOLF MDL1010/1034 สินค้าแท้สั่งตรงจากโรงงาน</v>
       </c>
       <c r="D32" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/motowolf-mdl10101034-i2961472198.html?spm=a2o4m.searchlistcategory.list.62.310851eenPmRTw</v>
       </c>
       <c r="E32" t="str">
-        <v>SME NA</v>
+        <v>฿649.00</v>
       </c>
       <c r="F32" t="str">
-        <v>https://www.lazada.co.th/products/sme-na-i4872353472.html?spm=a2o4m.searchlistcategory.list.88.310851eenO3SfV</v>
+        <v>21% Off</v>
       </c>
       <c r="G32" t="str">
-        <v>฿98.58</v>
+        <v>293 sold</v>
       </c>
       <c r="H32" t="str">
-        <v>Coins discount ฿4.93</v>
+        <v>(71)</v>
       </c>
       <c r="I32" t="str">
-        <v/>
+        <v>Udon Thani</v>
       </c>
       <c r="J32" t="str">
-        <v/>
-      </c>
-      <c r="K32" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L32" t="str">
-        <v>23% Off</v>
-      </c>
-      <c r="M32" t="str">
-        <v/>
-      </c>
-      <c r="N32" t="str">
-        <v/>
+        <v>Coins discount ฿32.45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://www.lazada.co.th/products/motorcycle-protector-knee-4-ld-4-pcs-pads-elbow-protector-stainless-steel-cross-country-i2732361241.html?spm=a2o4m.searchlistcategory.list.89.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/motorcycle-protector-knee-4-ld-4-pcs-pads-elbow-protector-stainless-steel-cross-country-i2732361241.html?spm=a2o4m.searchlistcategory.list.63.310851eenPmRTw</v>
       </c>
       <c r="B33" t="str">
         <v>https://img.lazcdn.com/g/p/3a82cbe50a1257bfa12838445f893b67.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C33" t="str">
-        <v/>
+        <v>Motorcycle Protector Knee 4 ชิ้นรถจักรยานยนต์มอเตอร์ครอสขี่จักรยานข้อศอกเข่า LD 4 pcs/ Pads Elbow Protector Stainless Steel Cross-country（สีดำ）</v>
       </c>
       <c r="D33" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/motorcycle-protector-knee-4-ld-4-pcs-pads-elbow-protector-stainless-steel-cross-country-i2732361241.html?spm=a2o4m.searchlistcategory.list.64.310851eenPmRTw</v>
       </c>
       <c r="E33" t="str">
-        <v>Motorcycle Protector Knee 4 ชิ้นรถจักรยานยนต์มอเตอร์ครอสขี่จักรยานข้อศอกเข่า LD 4 pcs/ Pads Elbow Protector Stainless Steel Cross-country（สีดำ）</v>
+        <v>฿388.00</v>
       </c>
       <c r="F33" t="str">
-        <v>https://www.lazada.co.th/products/motorcycle-protector-knee-4-ld-4-pcs-pads-elbow-protector-stainless-steel-cross-country-i2732361241.html?spm=a2o4m.searchlistcategory.list.90.310851eenO3SfV</v>
+        <v>75% Off</v>
       </c>
       <c r="G33" t="str">
-        <v>฿388.00</v>
+        <v/>
       </c>
       <c r="H33" t="str">
-        <v/>
+        <v>(1)</v>
       </c>
       <c r="I33" t="str">
-        <v/>
+        <v>Bangkok</v>
       </c>
       <c r="J33" t="str">
-        <v>(1)</v>
-      </c>
-      <c r="K33" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="L33" t="str">
-        <v>75% Off</v>
-      </c>
-      <c r="M33" t="str">
-        <v/>
-      </c>
-      <c r="N33" t="str">
         <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://www.lazada.co.th/products/eva-i5051008864.html?spm=a2o4m.searchlistcategory.list.91.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/eva-i5051008864.html?spm=a2o4m.searchlistcategory.list.65.310851eenPmRTw</v>
       </c>
       <c r="B34" t="str">
         <v>https://img.lazcdn.com/g/p/5f01bcf54bfa29a680a8483a1c689e50.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C34" t="str">
-        <v/>
+        <v>SKDK Protective Padded Shorts Butt Pads Protective Gear, EVA Hip Protector Padded, Skiing Impact Pad Shorts For Skiing Skating Snowboarding Skateboarding</v>
       </c>
       <c r="D34" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/eva-i5051008864.html?spm=a2o4m.searchlistcategory.list.66.310851eenPmRTw</v>
       </c>
       <c r="E34" t="str">
-        <v>SKDK Protective Padded Shorts Butt Pads Protective Gear, EVA Hip Protector Padded, Skiing Impact Pad Shorts For Skiing Skating Snowboarding Skateboarding</v>
+        <v>฿361.27</v>
       </c>
       <c r="F34" t="str">
-        <v>https://www.lazada.co.th/products/eva-i5051008864.html?spm=a2o4m.searchlistcategory.list.92.310851eenO3SfV</v>
+        <v>33% Off</v>
       </c>
       <c r="G34" t="str">
-        <v>฿361.27</v>
+        <v/>
       </c>
       <c r="H34" t="str">
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v>Overseas</v>
+      </c>
+      <c r="J34" t="str">
         <v>Coins discount ฿10.84</v>
-      </c>
-      <c r="I34" t="str">
-        <v/>
-      </c>
-      <c r="J34" t="str">
-        <v/>
-      </c>
-      <c r="K34" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L34" t="str">
-        <v>33% Off</v>
-      </c>
-      <c r="M34" t="str">
-        <v/>
-      </c>
-      <c r="N34" t="str">
-        <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://www.lazada.co.th/products/bolehdeals-i5135710880.html?spm=a2o4m.searchlistcategory.list.93.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/bolehdeals-i5135710880.html?spm=a2o4m.searchlistcategory.list.67.310851eenPmRTw</v>
       </c>
       <c r="B35" t="str">
         <v>https://img.lazcdn.com/g/p/e791a7cc353b89902dba56802a1f9c69.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C35" t="str">
-        <v>https://www.lazada.co.th/products/bolehdeals-i5135710880.html?spm=a2o4m.searchlistcategory.list.94.310851eenO3SfV</v>
+        <v>BolehDeals Motorcycle Knee Pads Knee Guards Trendy Motorcycle Windproof Leg Gaiter Knee Guards for Winter Ski Mountain Biking Skiing</v>
       </c>
       <c r="D35" t="str">
-        <v>https://img.lazcdn.com/g/p/95cebc14107a6420682b773bb7acae99.jpg_80x80q80.jpg_.webp</v>
+        <v>https://www.lazada.co.th/products/bolehdeals-i5135710880.html?spm=a2o4m.searchlistcategory.list.68.310851eenPmRTw</v>
       </c>
       <c r="E35" t="str">
-        <v>BolehDeals Motorcycle Knee Pads Knee Guards Trendy Motorcycle Windproof Leg Gaiter Knee Guards for Winter Ski Mountain Biking Skiing</v>
+        <v>฿165.30</v>
       </c>
       <c r="F35" t="str">
-        <v>https://www.lazada.co.th/products/bolehdeals-i5135710880.html?spm=a2o4m.searchlistcategory.list.99.310851eenO3SfV</v>
+        <v>49% Off</v>
       </c>
       <c r="G35" t="str">
-        <v>฿165.30</v>
+        <v/>
       </c>
       <c r="H35" t="str">
         <v/>
       </c>
       <c r="I35" t="str">
-        <v/>
+        <v>Overseas</v>
       </c>
       <c r="J35" t="str">
         <v/>
-      </c>
-      <c r="K35" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L35" t="str">
-        <v>49% Off</v>
-      </c>
-      <c r="M35" t="str">
-        <v>https://www.lazada.co.th/products/bolehdeals-i5135710880.html?spm=a2o4m.searchlistcategory.list.95.310851eenO3SfV</v>
-      </c>
-      <c r="N35" t="str">
-        <v>https://img.lazcdn.com/g/p/622e3e867c3ca98c0c548ce2c5f3d128.jpg_80x80q80.jpg_.webp</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://www.lazada.co.th/products/bolehdeals-i5137896843.html?spm=a2o4m.searchlistcategory.list.100.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/bolehdeals-i5137896843.html?spm=a2o4m.searchlistcategory.list.69.310851eenPmRTw</v>
       </c>
       <c r="B36" t="str">
         <v>https://img.lazcdn.com/g/p/edb7d236dbf19953ab2e963d4a1ea165.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C36" t="str">
-        <v>https://www.lazada.co.th/products/bolehdeals-i5137896843.html?spm=a2o4m.searchlistcategory.list.101.310851eenO3SfV</v>
+        <v>BolehDeals Motorcycle Knee Pads Motorcycle Leg Guards Windproof Leg Warmer Knee Braces Sleeves for Men and Women Skiing Winter Riding</v>
       </c>
       <c r="D36" t="str">
-        <v>https://img.lazcdn.com/g/p/edb7d236dbf19953ab2e963d4a1ea165.jpg_80x80q80.jpg_.webp</v>
+        <v>https://www.lazada.co.th/products/bolehdeals-i5137896843.html?spm=a2o4m.searchlistcategory.list.70.310851eenPmRTw</v>
       </c>
       <c r="E36" t="str">
-        <v>BolehDeals Motorcycle Knee Pads Motorcycle Leg Guards Windproof Leg Warmer Knee Braces Sleeves for Men and Women Skiing Winter Riding</v>
+        <v>฿326.00</v>
       </c>
       <c r="F36" t="str">
-        <v>https://www.lazada.co.th/products/bolehdeals-i5137896843.html?spm=a2o4m.searchlistcategory.list.102.310851eenO3SfV</v>
+        <v>40% Off</v>
       </c>
       <c r="G36" t="str">
-        <v>฿326.00</v>
+        <v/>
       </c>
       <c r="H36" t="str">
         <v/>
       </c>
       <c r="I36" t="str">
-        <v/>
+        <v>Overseas</v>
       </c>
       <c r="J36" t="str">
-        <v/>
-      </c>
-      <c r="K36" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L36" t="str">
-        <v>40% Off</v>
-      </c>
-      <c r="M36" t="str">
-        <v/>
-      </c>
-      <c r="N36" t="str">
         <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://www.lazada.co.th/products/pvc-i3919783408.html?spm=a2o4m.searchlistcategory.list.103.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/pro-biker-2-2-i4531207728.html?spm=a2o4m.searchlistcategory.list.71.310851eenPmRTw</v>
       </c>
       <c r="B37" t="str">
-        <v>https://img.lazcdn.com/g/ff/kf/Sffe0b165bc6a4a9394c20384ad46e8368.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/dcf62b8b9155f472c1d17dc9136d9940.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C37" t="str">
-        <v>https://www.lazada.co.th/products/pvc-i3919783408.html?spm=a2o4m.searchlistcategory.list.104.310851eenO3SfV</v>
+        <v>PRO-BIKER สนับเข่ามอเตอร์ไซค์ การ์ดเข่าวิบาก อย่างดี ของแท้ ทนทาน สแตนเลสเข่า 2ชิ้น+ ศอก 2ชิ้น แบบเข่าพับได้ แข็งแรงทนทาน น้ำหนักเบา การ์ดเข่า การ์ดศอก สนับแข้งสนับเข่าสนับศอก</v>
       </c>
       <c r="D37" t="str">
-        <v>https://img.lazcdn.com/g/ff/kf/S0f4661e54ed344e4b6ef5d16e05dfd31G.jpg_80x80q80.jpg_.webp</v>
+        <v>https://www.lazada.co.th/products/pro-biker-2-2-i4531207728.html?spm=a2o4m.searchlistcategory.list.72.310851eenPmRTw</v>
       </c>
       <c r="E37" t="str">
-        <v>(สินค้าพร้อมส่ง) การ์ดเข่า ป้องกัน การ์ดเข่าวิบาก การ์ดเข้ามอเตอร์ไซค์  วัสดุPVCคุณภาพสูง แข็งแรงทนทาน น้ำหนักเบา</v>
+        <v>฿299.00</v>
       </c>
       <c r="F37" t="str">
-        <v>https://www.lazada.co.th/products/pvc-i3919783408.html?spm=a2o4m.searchlistcategory.list.106.310851eenO3SfV</v>
+        <v>67% Off</v>
       </c>
       <c r="G37" t="str">
-        <v>฿1,150.00</v>
+        <v>132 sold</v>
       </c>
       <c r="H37" t="str">
-        <v/>
+        <v>(51)</v>
       </c>
       <c r="I37" t="str">
-        <v>31 sold</v>
+        <v>Samut Sakhon</v>
       </c>
       <c r="J37" t="str">
-        <v>(3)</v>
-      </c>
-      <c r="K37" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="L37" t="str">
-        <v/>
-      </c>
-      <c r="M37" t="str">
-        <v>https://www.lazada.co.th/products/pvc-i3919783408.html?spm=a2o4m.searchlistcategory.list.105.310851eenO3SfV</v>
-      </c>
-      <c r="N37" t="str">
-        <v>https://img.lazcdn.com/g/ff/kf/S8c13f5b6bdf845ff9c20db6a80e2d0c8t.jpg_80x80q80.jpg_.webp</v>
+        <v/>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://www.lazada.co.th/products/lalancea1fast-i3857122663.html?spm=a2o4m.searchlistcategory.list.107.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/wosawe-i4990563994.html?spm=a2o4m.searchlistcategory.list.73.310851eenPmRTw</v>
       </c>
       <c r="B38" t="str">
-        <v>https://img.lazcdn.com/g/p/5354096534f3829381974416b9d3f09b.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/594cc60379aefa236fd772eed518404e.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C38" t="str">
-        <v/>
+        <v>WOSAWE Basketball Ski Skating Mountain Bike Dance Skateboard Adult Outdoor Sports Protective Cover</v>
       </c>
       <c r="D38" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/wosawe-i4990563994.html?spm=a2o4m.searchlistcategory.list.74.310851eenPmRTw</v>
       </c>
       <c r="E38" t="str">
-        <v>LAL 1 Pair Motorcycle Thickened Anti-fall Elbow Pads Guards Adjustable Elastic Band Arm Protector</v>
+        <v>฿469.00</v>
       </c>
       <c r="F38" t="str">
-        <v>https://www.lazada.co.th/products/lalancea1fast-i3857122663.html?spm=a2o4m.searchlistcategory.list.108.310851eenO3SfV</v>
+        <v>36% Off</v>
       </c>
       <c r="G38" t="str">
-        <v>฿332.00</v>
+        <v/>
       </c>
       <c r="H38" t="str">
         <v/>
       </c>
       <c r="I38" t="str">
-        <v>29 sold</v>
+        <v>Overseas</v>
       </c>
       <c r="J38" t="str">
-        <v>(7)</v>
-      </c>
-      <c r="K38" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L38" t="str">
-        <v>23% Off</v>
-      </c>
-      <c r="M38" t="str">
-        <v/>
-      </c>
-      <c r="N38" t="str">
-        <v/>
+        <v>Coins discount ฿9.38</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://www.lazada.co.th/products/wosawe-i4990563994.html?spm=a2o4m.searchlistcategory.list.109.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/2-mtb-eva-i4990584815.html?spm=a2o4m.searchlistcategory.list.75.310851eenPmRTw</v>
       </c>
       <c r="B39" t="str">
-        <v>https://img.lazcdn.com/g/p/594cc60379aefa236fd772eed518404e.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/29b8b4a6add60a8f50a08c477fd6a588.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C39" t="str">
-        <v/>
+        <v>2PCS/SET Motorcycle Kneepads Elbow Guard EVA Soft MTB Racing Knee Elbow Protective Gear Skateboarding Knee Support</v>
       </c>
       <c r="D39" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/2-mtb-eva-i4990584815.html?spm=a2o4m.searchlistcategory.list.76.310851eenPmRTw</v>
       </c>
       <c r="E39" t="str">
-        <v>WOSAWE Basketball Ski Skating Mountain Bike Dance Skateboard Adult Outdoor Sports Protective Cover</v>
+        <v>฿353.00</v>
       </c>
       <c r="F39" t="str">
-        <v>https://www.lazada.co.th/products/wosawe-i4990563994.html?spm=a2o4m.searchlistcategory.list.110.310851eenO3SfV</v>
+        <v>40% Off</v>
       </c>
       <c r="G39" t="str">
-        <v>฿469.00</v>
+        <v/>
       </c>
       <c r="H39" t="str">
-        <v>Coins discount ฿9.38</v>
+        <v/>
       </c>
       <c r="I39" t="str">
-        <v/>
+        <v>Overseas</v>
       </c>
       <c r="J39" t="str">
-        <v/>
-      </c>
-      <c r="K39" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L39" t="str">
-        <v>36% Off</v>
-      </c>
-      <c r="M39" t="str">
-        <v/>
-      </c>
-      <c r="N39" t="str">
-        <v/>
+        <v>Coins discount ฿7.06</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://www.lazada.co.th/products/2-mtb-eva-i4990584815.html?spm=a2o4m.searchlistcategory.list.111.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/-i4996676536.html?spm=a2o4m.searchlistcategory.list.77.310851eenPmRTw</v>
       </c>
       <c r="B40" t="str">
-        <v>https://img.lazcdn.com/g/p/29b8b4a6add60a8f50a08c477fd6a588.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/e60909c9e615b15934d97193aebb9016.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C40" t="str">
-        <v/>
+        <v>Motorcycle Knee Protectors Genuine Leather Knee Protectors Cowhide Warmth Protectors Windproof And Windproof For Men And Women Riding In Winter</v>
       </c>
       <c r="D40" t="str">
-        <v/>
+        <v>https://www.lazada.co.th/products/-i4996676536.html?spm=a2o4m.searchlistcategory.list.78.310851eenPmRTw</v>
       </c>
       <c r="E40" t="str">
-        <v>2PCS/SET Motorcycle Kneepads Elbow Guard EVA Soft MTB Racing Knee Elbow Protective Gear Skateboarding Knee Support</v>
+        <v>฿420.00</v>
       </c>
       <c r="F40" t="str">
-        <v>https://www.lazada.co.th/products/2-mtb-eva-i4990584815.html?spm=a2o4m.searchlistcategory.list.112.310851eenO3SfV</v>
+        <v>37% Off</v>
       </c>
       <c r="G40" t="str">
-        <v>฿353.00</v>
+        <v/>
       </c>
       <c r="H40" t="str">
-        <v>Coins discount ฿7.06</v>
+        <v/>
       </c>
       <c r="I40" t="str">
-        <v/>
+        <v>Overseas</v>
       </c>
       <c r="J40" t="str">
-        <v/>
-      </c>
-      <c r="K40" t="str">
-        <v>Overseas</v>
-      </c>
-      <c r="L40" t="str">
-        <v>40% Off</v>
-      </c>
-      <c r="M40" t="str">
-        <v/>
-      </c>
-      <c r="N40" t="str">
         <v/>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://www.lazada.co.th/products/motowolf-mdl-1010-kmt01-15-i3619132208.html?spm=a2o4m.searchlistcategory.list.113.310851eenO3SfV</v>
+        <v>https://www.lazada.co.th/products/-i4968815292.html?spm=a2o4m.searchlistcategory.list.79.310851eenPmRTw</v>
       </c>
       <c r="B41" t="str">
-        <v>https://img.lazcdn.com/g/p/49ccf650dcab5e71e32cc23f1085ec7a.jpg_200x200q80.jpg_.webp</v>
+        <v>https://img.lazcdn.com/g/p/344a90cc62bf883ce7f52077c1e499ec.jpg_200x200q80.jpg_.webp</v>
       </c>
       <c r="C41" t="str">
-        <v>https://www.lazada.co.th/products/motowolf-mdl-1010-kmt01-15-i3619132208.html?spm=a2o4m.searchlistcategory.list.114.310851eenO3SfV</v>
+        <v>Knee Pads Fitness Sports Knee Support Braces for Men Women Compression Elastic Nylon Training and Exercise Kneepad Sleeve</v>
       </c>
       <c r="D41" t="str">
-        <v>https://img.lazcdn.com/g/p/52ba4b6cf34349119e70e5bc19150937.jpg_80x80q80.jpg_.webp</v>
+        <v>https://www.lazada.co.th/products/-i4968815292.html?spm=a2o4m.searchlistcategory.list.80.310851eenPmRTw</v>
       </c>
       <c r="E41" t="str">
-        <v>ชุดการ์ดศอกและเข่า การ์ดเข่า สนับเข่า สนับศอก สำหรับขี่มอเตอร์ไซด์ ขนาดฟรีไซส์ Motowolf MDL 1010 (kmt01) /15</v>
+        <v>฿54.00</v>
       </c>
       <c r="F41" t="str">
-        <v>https://www.lazada.co.th/products/motowolf-mdl-1010-kmt01-15-i3619132208.html?spm=a2o4m.searchlistcategory.list.116.310851eenO3SfV</v>
+        <v>47% Off</v>
       </c>
       <c r="G41" t="str">
-        <v>฿697.00</v>
+        <v>20 sold</v>
       </c>
       <c r="H41" t="str">
-        <v/>
+        <v>(3)</v>
       </c>
       <c r="I41" t="str">
-        <v>21 sold</v>
+        <v>Overseas</v>
       </c>
       <c r="J41" t="str">
-        <v>(6)</v>
-      </c>
-      <c r="K41" t="str">
-        <v>Chiang Rai</v>
-      </c>
-      <c r="L41" t="str">
-        <v/>
-      </c>
-      <c r="M41" t="str">
-        <v>https://www.lazada.co.th/products/motowolf-mdl-1010-kmt01-15-i3619132208.html?spm=a2o4m.searchlistcategory.list.115.310851eenO3SfV</v>
-      </c>
-      <c r="N41" t="str">
-        <v>https://img.lazcdn.com/g/p/ef17526588599d20ec27e54b9e858889.jpg_80x80q80.jpg_.webp</v>
+        <v>Coins discount ฿2.16</v>
       </c>
     </row>
   </sheetData>
